--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H2">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I2">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J2">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N2">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O2">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P2">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q2">
-        <v>3121.955947406032</v>
+        <v>2436.099011285993</v>
       </c>
       <c r="R2">
-        <v>28097.60352665428</v>
+        <v>21924.89110157394</v>
       </c>
       <c r="S2">
-        <v>0.01031247781035202</v>
+        <v>0.01585730503782149</v>
       </c>
       <c r="T2">
-        <v>0.01063311162342424</v>
+        <v>0.01670710142172703</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H3">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I3">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J3">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.689053</v>
       </c>
       <c r="O3">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P3">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q3">
-        <v>14.188506700286</v>
+        <v>14.98605591739267</v>
       </c>
       <c r="R3">
-        <v>127.696560302574</v>
+        <v>134.874503256534</v>
       </c>
       <c r="S3">
-        <v>4.686762496770765E-05</v>
+        <v>9.754876911611989E-05</v>
       </c>
       <c r="T3">
-        <v>4.832482522349391E-05</v>
+        <v>0.000102776428611324</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H4">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I4">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J4">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N4">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O4">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P4">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q4">
-        <v>677.8906206153321</v>
+        <v>862.5644719035231</v>
       </c>
       <c r="R4">
-        <v>6101.015585537988</v>
+        <v>7763.080247131707</v>
       </c>
       <c r="S4">
-        <v>0.00223921544721021</v>
+        <v>0.005614692950653559</v>
       </c>
       <c r="T4">
-        <v>0.002308836754555814</v>
+        <v>0.005915585552191157</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H5">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I5">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J5">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N5">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O5">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P5">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q5">
-        <v>134.207769330186</v>
+        <v>39.09758734226801</v>
       </c>
       <c r="R5">
-        <v>805.246615981116</v>
+        <v>234.585524053608</v>
       </c>
       <c r="S5">
-        <v>0.0004433165190381159</v>
+        <v>0.0002544980174684811</v>
       </c>
       <c r="T5">
-        <v>0.0003047333607647141</v>
+        <v>0.0001787577472688684</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H6">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I6">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J6">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N6">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O6">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P6">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q6">
-        <v>653.8471529131893</v>
+        <v>1121.072920801767</v>
       </c>
       <c r="R6">
-        <v>5884.624376218704</v>
+        <v>10089.6562872159</v>
       </c>
       <c r="S6">
-        <v>0.002159794811128436</v>
+        <v>0.007297402606559372</v>
       </c>
       <c r="T6">
-        <v>0.002226946785511407</v>
+        <v>0.007688471980085721</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J7">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N7">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O7">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P7">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q7">
-        <v>30669.00371645778</v>
+        <v>22657.77051937846</v>
       </c>
       <c r="R7">
-        <v>276021.03344812</v>
+        <v>203919.9346744061</v>
       </c>
       <c r="S7">
-        <v>0.1013061765187172</v>
+        <v>0.1474862790626383</v>
       </c>
       <c r="T7">
-        <v>0.1044559709970488</v>
+        <v>0.1553901004449085</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J8">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.689053</v>
       </c>
       <c r="O8">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P8">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q8">
         <v>139.382929180539</v>
@@ -948,10 +948,10 @@
         <v>1254.446362624851</v>
       </c>
       <c r="S8">
-        <v>0.0004604111616342529</v>
+        <v>0.0009072856295418445</v>
       </c>
       <c r="T8">
-        <v>0.0004747261874748528</v>
+        <v>0.000955907261358549</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J9">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N9">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O9">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P9">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q9">
-        <v>6659.360450065819</v>
+        <v>8022.575343619518</v>
       </c>
       <c r="R9">
-        <v>59934.24405059237</v>
+        <v>72203.17809257566</v>
       </c>
       <c r="S9">
-        <v>0.02199726966983625</v>
+        <v>0.05222136859926885</v>
       </c>
       <c r="T9">
-        <v>0.02268120505191654</v>
+        <v>0.05501992296222095</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>466.501167</v>
       </c>
       <c r="I10">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J10">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N10">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O10">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P10">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q10">
-        <v>1318.410203636889</v>
+        <v>363.6404586835021</v>
       </c>
       <c r="R10">
-        <v>7910.461221821334</v>
+        <v>2181.842752101012</v>
       </c>
       <c r="S10">
-        <v>0.004354986488916925</v>
+        <v>0.002367045695073621</v>
       </c>
       <c r="T10">
-        <v>0.002993593994043053</v>
+        <v>0.0016625974549536</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>466.501167</v>
       </c>
       <c r="I11">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J11">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N11">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O11">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P11">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q11">
-        <v>6423.165829534345</v>
+        <v>10426.92142533519</v>
       </c>
       <c r="R11">
-        <v>57808.4924658091</v>
+        <v>93842.29282801665</v>
       </c>
       <c r="S11">
-        <v>0.02121706910833276</v>
+        <v>0.06787198421777346</v>
       </c>
       <c r="T11">
-        <v>0.02187674662672632</v>
+        <v>0.07150925843424287</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H12">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I12">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J12">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N12">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O12">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P12">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q12">
-        <v>35327.32445949434</v>
+        <v>28392.05968054592</v>
       </c>
       <c r="R12">
-        <v>317945.920135449</v>
+        <v>255528.5371249134</v>
       </c>
       <c r="S12">
-        <v>0.1166935907248599</v>
+        <v>0.1848125010193168</v>
       </c>
       <c r="T12">
-        <v>0.1203218080789512</v>
+        <v>0.1947166426557529</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H13">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I13">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J13">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.689053</v>
       </c>
       <c r="O13">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P13">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q13">
-        <v>160.5538285103557</v>
+        <v>174.6583336766766</v>
       </c>
       <c r="R13">
-        <v>1444.984456593201</v>
+        <v>1571.92500309009</v>
       </c>
       <c r="S13">
-        <v>0.0005303430995737783</v>
+        <v>0.001136903903198344</v>
       </c>
       <c r="T13">
-        <v>0.0005468324373818252</v>
+        <v>0.001197830827633594</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H14">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I14">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J14">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N14">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O14">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P14">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q14">
-        <v>7670.851961387785</v>
+        <v>10052.95016793073</v>
       </c>
       <c r="R14">
-        <v>69037.66765249007</v>
+        <v>90476.55151137657</v>
       </c>
       <c r="S14">
-        <v>0.02533843909746194</v>
+        <v>0.06543769223022833</v>
       </c>
       <c r="T14">
-        <v>0.02612625755336805</v>
+        <v>0.06894451221607961</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H15">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I15">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J15">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N15">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O15">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P15">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q15">
-        <v>1518.663777447539</v>
+        <v>455.67155852218</v>
       </c>
       <c r="R15">
-        <v>9111.982664685234</v>
+        <v>2734.02935113308</v>
       </c>
       <c r="S15">
-        <v>0.00501646620584947</v>
+        <v>0.002966103950237781</v>
       </c>
       <c r="T15">
-        <v>0.003448291548864408</v>
+        <v>0.00208337206546398</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H16">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I16">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J16">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N16">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O16">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P16">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q16">
-        <v>7398.781695517855</v>
+        <v>13065.79458642167</v>
       </c>
       <c r="R16">
-        <v>66589.0352596607</v>
+        <v>117592.151277795</v>
       </c>
       <c r="S16">
-        <v>0.02443973372592348</v>
+        <v>0.08504920750697749</v>
       </c>
       <c r="T16">
-        <v>0.02519960978666481</v>
+        <v>0.08960701281002736</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H17">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I17">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J17">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N17">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O17">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P17">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q17">
-        <v>12712.81271449475</v>
+        <v>12068.98491135221</v>
       </c>
       <c r="R17">
-        <v>76276.87628696847</v>
+        <v>72413.90946811324</v>
       </c>
       <c r="S17">
-        <v>0.04199309703082674</v>
+        <v>0.07856067193884225</v>
       </c>
       <c r="T17">
-        <v>0.02886582619318618</v>
+        <v>0.05518050348449288</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H18">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I18">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J18">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.689053</v>
       </c>
       <c r="O18">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P18">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q18">
-        <v>57.77654503067549</v>
+        <v>74.24430694720199</v>
       </c>
       <c r="R18">
-        <v>346.659270184053</v>
+        <v>445.4658416832119</v>
       </c>
       <c r="S18">
-        <v>0.0001908480928703364</v>
+        <v>0.0004832786422592645</v>
       </c>
       <c r="T18">
-        <v>0.0001311879396285558</v>
+        <v>0.000339451765686633</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H19">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I19">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J19">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N19">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O19">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P19">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q19">
-        <v>2760.415792527681</v>
+        <v>4273.339280646323</v>
       </c>
       <c r="R19">
-        <v>16562.49475516608</v>
+        <v>25640.03568387794</v>
       </c>
       <c r="S19">
-        <v>0.009118234557870494</v>
+        <v>0.02781645745488055</v>
       </c>
       <c r="T19">
-        <v>0.006267824774699921</v>
+        <v>0.01953809825748678</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H20">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I20">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J20">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N20">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O20">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P20">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q20">
-        <v>546.5029824467505</v>
+        <v>193.698281358036</v>
       </c>
       <c r="R20">
-        <v>2186.011929787002</v>
+        <v>774.7931254321439</v>
       </c>
       <c r="S20">
-        <v>0.001805214415166871</v>
+        <v>0.001260840679531624</v>
       </c>
       <c r="T20">
-        <v>0.0008272630381986893</v>
+        <v>0.0005904041788614607</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H21">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I21">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J21">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N21">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O21">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P21">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q21">
-        <v>2662.509189406548</v>
+        <v>5554.048543593311</v>
       </c>
       <c r="R21">
-        <v>15975.05513643929</v>
+        <v>33324.29126155987</v>
       </c>
       <c r="S21">
-        <v>0.008794828433894742</v>
+        <v>0.0361529812797448</v>
       </c>
       <c r="T21">
-        <v>0.006045517166436519</v>
+        <v>0.02539361820930937</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H22">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I22">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J22">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N22">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O22">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P22">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q22">
-        <v>123538.1483165429</v>
+        <v>18098.17424775031</v>
       </c>
       <c r="R22">
-        <v>1111843.334848886</v>
+        <v>162883.5682297528</v>
       </c>
       <c r="S22">
-        <v>0.4080725143815218</v>
+        <v>0.1178064883014438</v>
       </c>
       <c r="T22">
-        <v>0.4207602358682796</v>
+        <v>0.1241197633201434</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H23">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I23">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J23">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.689053</v>
       </c>
       <c r="O23">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P23">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q23">
-        <v>561.4498970065792</v>
+        <v>111.3338374273743</v>
       </c>
       <c r="R23">
-        <v>5053.049073059214</v>
+        <v>1002.004536846369</v>
       </c>
       <c r="S23">
-        <v>0.001854587220974568</v>
+        <v>0.0007247056104608552</v>
       </c>
       <c r="T23">
-        <v>0.001912249732668816</v>
+        <v>0.0007635427398278454</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H24">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I24">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J24">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N24">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O24">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P24">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q24">
-        <v>26824.64244940819</v>
+        <v>6408.131213101997</v>
       </c>
       <c r="R24">
-        <v>241421.7820446737</v>
+        <v>57673.18091791797</v>
       </c>
       <c r="S24">
-        <v>0.08860744183786247</v>
+        <v>0.04171246361407186</v>
       </c>
       <c r="T24">
-        <v>0.09136240940875312</v>
+        <v>0.04394784350103782</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H25">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I25">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J25">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N25">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O25">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P25">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q25">
-        <v>5310.702518567145</v>
+        <v>290.462310894938</v>
       </c>
       <c r="R25">
-        <v>31864.21511140287</v>
+        <v>1742.773865369628</v>
       </c>
       <c r="S25">
-        <v>0.01754236856724664</v>
+        <v>0.001890707005139391</v>
       </c>
       <c r="T25">
-        <v>0.0120585286126248</v>
+        <v>0.001328020266507751</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H26">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I26">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J26">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N26">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O26">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P26">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q26">
-        <v>25873.2243227369</v>
+        <v>8328.632363096851</v>
       </c>
       <c r="R26">
-        <v>232859.0189046321</v>
+        <v>74957.69126787166</v>
       </c>
       <c r="S26">
-        <v>0.08546470744796295</v>
+        <v>0.0542135862777517</v>
       </c>
       <c r="T26">
-        <v>0.08812196165360443</v>
+        <v>0.05711890401411999</v>
       </c>
     </row>
   </sheetData>
